--- a/data/map/stage0.xlsx
+++ b/data/map/stage0.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29022"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hanai\CoG4.1\Platform\project\data\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DAEA24-99C2-4F31-A069-C5F26C54A32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1955AF16-E0CF-4E0F-B302-EB0B81001083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="1920" windowWidth="15660" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,15 +358,21 @@
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="32" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="19" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="32" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32">
       <c r="A1">
         <v>0</v>
       </c>
@@ -453,7 +470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>0</v>
       </c>
@@ -551,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>0</v>
       </c>
@@ -649,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>0</v>
       </c>
@@ -747,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>0</v>
       </c>
@@ -845,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>0</v>
       </c>
@@ -904,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -943,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1041,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1139,28 +1156,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -1237,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>1</v>
       </c>

--- a/data/map/stage0.xlsx
+++ b/data/map/stage0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hanai\CoG4.1\Platform\project\data\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A17\2DAction_remeke\project\data\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1955AF16-E0CF-4E0F-B302-EB0B81001083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB838B2-68BF-432D-93E6-04867AEDFDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="1920" windowWidth="15660" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4404" yWindow="2280" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,7 +83,18 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,24 +370,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:DH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
+      <selection activeCell="DH7" sqref="DH7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="19" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.796875" customWidth="1"/>
     <col min="21" max="32" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="112" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0</v>
       </c>
@@ -469,8 +485,248 @@
       <c r="AF1">
         <v>0</v>
       </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <v>0</v>
+      </c>
+      <c r="AO1">
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>0</v>
+      </c>
+      <c r="AR1">
+        <v>0</v>
+      </c>
+      <c r="AS1">
+        <v>0</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>0</v>
+      </c>
+      <c r="AV1">
+        <v>0</v>
+      </c>
+      <c r="AW1">
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>0</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1">
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <v>0</v>
+      </c>
+      <c r="BH1">
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <v>0</v>
+      </c>
+      <c r="BL1">
+        <v>0</v>
+      </c>
+      <c r="BM1">
+        <v>0</v>
+      </c>
+      <c r="BN1">
+        <v>0</v>
+      </c>
+      <c r="BO1">
+        <v>0</v>
+      </c>
+      <c r="BP1">
+        <v>0</v>
+      </c>
+      <c r="BQ1">
+        <v>0</v>
+      </c>
+      <c r="BR1">
+        <v>0</v>
+      </c>
+      <c r="BS1">
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <v>0</v>
+      </c>
+      <c r="BU1">
+        <v>0</v>
+      </c>
+      <c r="BV1">
+        <v>0</v>
+      </c>
+      <c r="BW1">
+        <v>0</v>
+      </c>
+      <c r="BX1">
+        <v>0</v>
+      </c>
+      <c r="BY1">
+        <v>0</v>
+      </c>
+      <c r="BZ1">
+        <v>0</v>
+      </c>
+      <c r="CA1">
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <v>0</v>
+      </c>
+      <c r="CE1">
+        <v>0</v>
+      </c>
+      <c r="CF1">
+        <v>0</v>
+      </c>
+      <c r="CG1">
+        <v>0</v>
+      </c>
+      <c r="CH1">
+        <v>0</v>
+      </c>
+      <c r="CI1">
+        <v>0</v>
+      </c>
+      <c r="CJ1">
+        <v>0</v>
+      </c>
+      <c r="CK1">
+        <v>0</v>
+      </c>
+      <c r="CL1">
+        <v>0</v>
+      </c>
+      <c r="CM1">
+        <v>0</v>
+      </c>
+      <c r="CN1">
+        <v>0</v>
+      </c>
+      <c r="CO1">
+        <v>0</v>
+      </c>
+      <c r="CP1">
+        <v>0</v>
+      </c>
+      <c r="CQ1">
+        <v>0</v>
+      </c>
+      <c r="CR1">
+        <v>0</v>
+      </c>
+      <c r="CS1">
+        <v>0</v>
+      </c>
+      <c r="CT1">
+        <v>0</v>
+      </c>
+      <c r="CU1">
+        <v>0</v>
+      </c>
+      <c r="CV1">
+        <v>0</v>
+      </c>
+      <c r="CW1">
+        <v>0</v>
+      </c>
+      <c r="CX1">
+        <v>0</v>
+      </c>
+      <c r="CY1">
+        <v>0</v>
+      </c>
+      <c r="CZ1">
+        <v>0</v>
+      </c>
+      <c r="DA1">
+        <v>0</v>
+      </c>
+      <c r="DB1">
+        <v>0</v>
+      </c>
+      <c r="DC1">
+        <v>0</v>
+      </c>
+      <c r="DD1">
+        <v>0</v>
+      </c>
+      <c r="DE1">
+        <v>0</v>
+      </c>
+      <c r="DF1">
+        <v>0</v>
+      </c>
+      <c r="DG1">
+        <v>0</v>
+      </c>
+      <c r="DH1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -567,8 +823,248 @@
       <c r="AF2">
         <v>0</v>
       </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -665,8 +1161,248 @@
       <c r="AF3">
         <v>0</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -763,8 +1499,248 @@
       <c r="AF4">
         <v>0</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -861,8 +1837,248 @@
       <c r="AF5">
         <v>0</v>
       </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>1</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -888,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -921,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -959,8 +2175,248 @@
       <c r="AF6">
         <v>0</v>
       </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>1</v>
+      </c>
+      <c r="CL6">
+        <v>1</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>1</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1057,8 +2513,248 @@
       <c r="AF7">
         <v>0</v>
       </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>1</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>1</v>
+      </c>
+      <c r="CL7">
+        <v>1</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>1</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1155,8 +2851,248 @@
       <c r="AF8">
         <v>0</v>
       </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>1</v>
+      </c>
+      <c r="BV8">
+        <v>1</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>1</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>1</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>1</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1164,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1176,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1203,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1253,8 +3189,248 @@
       <c r="AF9">
         <v>0</v>
       </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>1</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>1</v>
+      </c>
+      <c r="BQ9">
+        <v>1</v>
+      </c>
+      <c r="BR9">
+        <v>1</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>1</v>
+      </c>
+      <c r="BV9">
+        <v>1</v>
+      </c>
+      <c r="BW9">
+        <v>1</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>1</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>1</v>
+      </c>
+      <c r="CP9">
+        <v>1</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>1</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>1</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1349,11 +3525,256 @@
         <v>1</v>
       </c>
       <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>1</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>1</v>
+      </c>
+      <c r="BG10">
+        <v>1</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>1</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>1</v>
+      </c>
+      <c r="BN10">
+        <v>1</v>
+      </c>
+      <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BP10">
+        <v>1</v>
+      </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
+      <c r="BR10">
+        <v>1</v>
+      </c>
+      <c r="BS10">
+        <v>1</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <v>1</v>
+      </c>
+      <c r="BV10">
+        <v>1</v>
+      </c>
+      <c r="BW10">
+        <v>1</v>
+      </c>
+      <c r="BX10">
+        <v>1</v>
+      </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
+      <c r="BZ10">
+        <v>1</v>
+      </c>
+      <c r="CA10">
+        <v>1</v>
+      </c>
+      <c r="CB10">
+        <v>1</v>
+      </c>
+      <c r="CC10">
+        <v>1</v>
+      </c>
+      <c r="CD10">
+        <v>1</v>
+      </c>
+      <c r="CE10">
+        <v>1</v>
+      </c>
+      <c r="CF10">
+        <v>1</v>
+      </c>
+      <c r="CG10">
+        <v>1</v>
+      </c>
+      <c r="CH10">
+        <v>1</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>1</v>
+      </c>
+      <c r="CP10">
+        <v>1</v>
+      </c>
+      <c r="CQ10">
+        <v>1</v>
+      </c>
+      <c r="CR10">
+        <v>1</v>
+      </c>
+      <c r="CS10">
+        <v>1</v>
+      </c>
+      <c r="CT10">
+        <v>1</v>
+      </c>
+      <c r="CU10">
+        <v>1</v>
+      </c>
+      <c r="CV10">
+        <v>1</v>
+      </c>
+      <c r="CW10">
+        <v>1</v>
+      </c>
+      <c r="CX10">
+        <v>1</v>
+      </c>
+      <c r="CY10">
+        <v>1</v>
+      </c>
+      <c r="CZ10">
+        <v>1</v>
+      </c>
+      <c r="DA10">
+        <v>1</v>
+      </c>
+      <c r="DB10">
+        <v>1</v>
+      </c>
+      <c r="DC10">
+        <v>1</v>
+      </c>
+      <c r="DD10">
+        <v>1</v>
+      </c>
+      <c r="DE10">
+        <v>1</v>
+      </c>
+      <c r="DF10">
+        <v>1</v>
+      </c>
+      <c r="DG10">
+        <v>1</v>
+      </c>
+      <c r="DH10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/map/stage0.xlsx
+++ b/data/map/stage0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A17\2DAction_remeke\project\data\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB838B2-68BF-432D-93E6-04867AEDFDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166114E1-38FC-45CD-AE7C-C2F1D31C87BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="2280" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4092" yWindow="1248" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,7 +369,7 @@
   <dimension ref="A1:DH10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="DH7" sqref="DH7"/>
+      <selection activeCell="DH10" sqref="DH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3427,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="DH9">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:112" x14ac:dyDescent="0.45">

--- a/data/map/stage0.xlsx
+++ b/data/map/stage0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A17\2DAction_remeke\project\data\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166114E1-38FC-45CD-AE7C-C2F1D31C87BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA0DF42-37DA-4947-B355-98F5831BED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4092" yWindow="1248" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,25 +366,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DH10"/>
+  <dimension ref="A1:HY12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="DH10" sqref="DH10"/>
+    <sheetView tabSelected="1" topLeftCell="IB1" workbookViewId="0">
+      <selection activeCell="HZ1" sqref="HZ1:IX1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.796875" customWidth="1"/>
-    <col min="21" max="32" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="112" width="2.59765625" customWidth="1"/>
+    <col min="7" max="7" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.75" customWidth="1"/>
+    <col min="21" max="24" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="114" width="2.625" customWidth="1"/>
+    <col min="115" max="115" width="3" customWidth="1"/>
+    <col min="116" max="116" width="2.75" customWidth="1"/>
+    <col min="117" max="136" width="3.5" customWidth="1"/>
+    <col min="137" max="147" width="3.25" customWidth="1"/>
+    <col min="148" max="168" width="3.375" customWidth="1"/>
+    <col min="169" max="169" width="3.125" customWidth="1"/>
+    <col min="170" max="180" width="3.375" customWidth="1"/>
+    <col min="181" max="214" width="3.875" customWidth="1"/>
+    <col min="215" max="233" width="4" customWidth="1"/>
+    <col min="234" max="258" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:233">
       <c r="A1">
         <v>0</v>
       </c>
@@ -721,8 +740,371 @@
       <c r="DH1">
         <v>0</v>
       </c>
+      <c r="DI1">
+        <v>0</v>
+      </c>
+      <c r="DJ1">
+        <v>0</v>
+      </c>
+      <c r="DK1">
+        <v>0</v>
+      </c>
+      <c r="DL1">
+        <v>0</v>
+      </c>
+      <c r="DM1">
+        <v>0</v>
+      </c>
+      <c r="DN1">
+        <v>0</v>
+      </c>
+      <c r="DO1">
+        <v>0</v>
+      </c>
+      <c r="DP1">
+        <v>0</v>
+      </c>
+      <c r="DQ1">
+        <v>0</v>
+      </c>
+      <c r="DR1">
+        <v>0</v>
+      </c>
+      <c r="DS1">
+        <v>0</v>
+      </c>
+      <c r="DT1">
+        <v>0</v>
+      </c>
+      <c r="DU1">
+        <v>0</v>
+      </c>
+      <c r="DV1">
+        <v>0</v>
+      </c>
+      <c r="DW1">
+        <v>0</v>
+      </c>
+      <c r="DX1">
+        <v>0</v>
+      </c>
+      <c r="DY1">
+        <v>0</v>
+      </c>
+      <c r="DZ1">
+        <v>0</v>
+      </c>
+      <c r="EA1">
+        <v>0</v>
+      </c>
+      <c r="EB1">
+        <v>0</v>
+      </c>
+      <c r="EC1">
+        <v>0</v>
+      </c>
+      <c r="ED1">
+        <v>0</v>
+      </c>
+      <c r="EE1">
+        <v>0</v>
+      </c>
+      <c r="EF1">
+        <v>0</v>
+      </c>
+      <c r="EG1">
+        <v>0</v>
+      </c>
+      <c r="EH1">
+        <v>0</v>
+      </c>
+      <c r="EI1">
+        <v>0</v>
+      </c>
+      <c r="EJ1">
+        <v>0</v>
+      </c>
+      <c r="EK1">
+        <v>0</v>
+      </c>
+      <c r="EL1">
+        <v>0</v>
+      </c>
+      <c r="EM1">
+        <v>0</v>
+      </c>
+      <c r="EN1">
+        <v>0</v>
+      </c>
+      <c r="EO1">
+        <v>0</v>
+      </c>
+      <c r="EP1">
+        <v>0</v>
+      </c>
+      <c r="EQ1">
+        <v>0</v>
+      </c>
+      <c r="ER1">
+        <v>0</v>
+      </c>
+      <c r="ES1">
+        <v>0</v>
+      </c>
+      <c r="ET1">
+        <v>0</v>
+      </c>
+      <c r="EU1">
+        <v>0</v>
+      </c>
+      <c r="EV1">
+        <v>0</v>
+      </c>
+      <c r="EW1">
+        <v>0</v>
+      </c>
+      <c r="EX1">
+        <v>0</v>
+      </c>
+      <c r="EY1">
+        <v>0</v>
+      </c>
+      <c r="EZ1">
+        <v>0</v>
+      </c>
+      <c r="FA1">
+        <v>0</v>
+      </c>
+      <c r="FB1">
+        <v>0</v>
+      </c>
+      <c r="FC1">
+        <v>0</v>
+      </c>
+      <c r="FD1">
+        <v>0</v>
+      </c>
+      <c r="FE1">
+        <v>0</v>
+      </c>
+      <c r="FF1">
+        <v>0</v>
+      </c>
+      <c r="FG1">
+        <v>0</v>
+      </c>
+      <c r="FH1">
+        <v>0</v>
+      </c>
+      <c r="FI1">
+        <v>0</v>
+      </c>
+      <c r="FJ1">
+        <v>0</v>
+      </c>
+      <c r="FK1">
+        <v>0</v>
+      </c>
+      <c r="FL1">
+        <v>0</v>
+      </c>
+      <c r="FM1">
+        <v>0</v>
+      </c>
+      <c r="FN1">
+        <v>0</v>
+      </c>
+      <c r="FO1">
+        <v>0</v>
+      </c>
+      <c r="FP1">
+        <v>0</v>
+      </c>
+      <c r="FQ1">
+        <v>0</v>
+      </c>
+      <c r="FR1">
+        <v>0</v>
+      </c>
+      <c r="FS1">
+        <v>0</v>
+      </c>
+      <c r="FT1">
+        <v>0</v>
+      </c>
+      <c r="FU1">
+        <v>0</v>
+      </c>
+      <c r="FV1">
+        <v>0</v>
+      </c>
+      <c r="FW1">
+        <v>0</v>
+      </c>
+      <c r="FX1">
+        <v>0</v>
+      </c>
+      <c r="FY1">
+        <v>0</v>
+      </c>
+      <c r="FZ1">
+        <v>0</v>
+      </c>
+      <c r="GA1">
+        <v>0</v>
+      </c>
+      <c r="GB1">
+        <v>0</v>
+      </c>
+      <c r="GC1">
+        <v>0</v>
+      </c>
+      <c r="GD1">
+        <v>0</v>
+      </c>
+      <c r="GE1">
+        <v>0</v>
+      </c>
+      <c r="GF1">
+        <v>0</v>
+      </c>
+      <c r="GG1">
+        <v>0</v>
+      </c>
+      <c r="GH1">
+        <v>0</v>
+      </c>
+      <c r="GI1">
+        <v>0</v>
+      </c>
+      <c r="GJ1">
+        <v>0</v>
+      </c>
+      <c r="GK1">
+        <v>0</v>
+      </c>
+      <c r="GL1">
+        <v>0</v>
+      </c>
+      <c r="GM1">
+        <v>0</v>
+      </c>
+      <c r="GN1">
+        <v>0</v>
+      </c>
+      <c r="GO1">
+        <v>0</v>
+      </c>
+      <c r="GP1">
+        <v>0</v>
+      </c>
+      <c r="GQ1">
+        <v>0</v>
+      </c>
+      <c r="GR1">
+        <v>0</v>
+      </c>
+      <c r="GS1">
+        <v>0</v>
+      </c>
+      <c r="GT1">
+        <v>0</v>
+      </c>
+      <c r="GU1">
+        <v>0</v>
+      </c>
+      <c r="GV1">
+        <v>0</v>
+      </c>
+      <c r="GW1">
+        <v>0</v>
+      </c>
+      <c r="GX1">
+        <v>0</v>
+      </c>
+      <c r="GY1">
+        <v>0</v>
+      </c>
+      <c r="GZ1">
+        <v>0</v>
+      </c>
+      <c r="HA1">
+        <v>0</v>
+      </c>
+      <c r="HB1">
+        <v>0</v>
+      </c>
+      <c r="HC1">
+        <v>0</v>
+      </c>
+      <c r="HD1">
+        <v>0</v>
+      </c>
+      <c r="HE1">
+        <v>0</v>
+      </c>
+      <c r="HF1">
+        <v>0</v>
+      </c>
+      <c r="HG1">
+        <v>0</v>
+      </c>
+      <c r="HH1">
+        <v>0</v>
+      </c>
+      <c r="HI1">
+        <v>0</v>
+      </c>
+      <c r="HJ1">
+        <v>0</v>
+      </c>
+      <c r="HK1">
+        <v>0</v>
+      </c>
+      <c r="HL1">
+        <v>0</v>
+      </c>
+      <c r="HM1">
+        <v>0</v>
+      </c>
+      <c r="HN1">
+        <v>0</v>
+      </c>
+      <c r="HO1">
+        <v>0</v>
+      </c>
+      <c r="HP1">
+        <v>0</v>
+      </c>
+      <c r="HQ1">
+        <v>0</v>
+      </c>
+      <c r="HR1">
+        <v>0</v>
+      </c>
+      <c r="HS1">
+        <v>0</v>
+      </c>
+      <c r="HT1">
+        <v>0</v>
+      </c>
+      <c r="HU1">
+        <v>0</v>
+      </c>
+      <c r="HV1">
+        <v>0</v>
+      </c>
+      <c r="HW1">
+        <v>0</v>
+      </c>
+      <c r="HX1">
+        <v>0</v>
+      </c>
+      <c r="HY1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:233">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1059,8 +1441,371 @@
       <c r="DH2">
         <v>0</v>
       </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2">
+        <v>0</v>
+      </c>
+      <c r="EJ2">
+        <v>0</v>
+      </c>
+      <c r="EK2">
+        <v>0</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2">
+        <v>0</v>
+      </c>
+      <c r="ER2">
+        <v>0</v>
+      </c>
+      <c r="ES2">
+        <v>0</v>
+      </c>
+      <c r="ET2">
+        <v>0</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>0</v>
+      </c>
+      <c r="EX2">
+        <v>0</v>
+      </c>
+      <c r="EY2">
+        <v>0</v>
+      </c>
+      <c r="EZ2">
+        <v>0</v>
+      </c>
+      <c r="FA2">
+        <v>0</v>
+      </c>
+      <c r="FB2">
+        <v>0</v>
+      </c>
+      <c r="FC2">
+        <v>0</v>
+      </c>
+      <c r="FD2">
+        <v>0</v>
+      </c>
+      <c r="FE2">
+        <v>0</v>
+      </c>
+      <c r="FF2">
+        <v>0</v>
+      </c>
+      <c r="FG2">
+        <v>0</v>
+      </c>
+      <c r="FH2">
+        <v>0</v>
+      </c>
+      <c r="FI2">
+        <v>0</v>
+      </c>
+      <c r="FJ2">
+        <v>0</v>
+      </c>
+      <c r="FK2">
+        <v>0</v>
+      </c>
+      <c r="FL2">
+        <v>0</v>
+      </c>
+      <c r="FM2">
+        <v>0</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2">
+        <v>0</v>
+      </c>
+      <c r="FP2">
+        <v>0</v>
+      </c>
+      <c r="FQ2">
+        <v>0</v>
+      </c>
+      <c r="FR2">
+        <v>0</v>
+      </c>
+      <c r="FS2">
+        <v>0</v>
+      </c>
+      <c r="FT2">
+        <v>0</v>
+      </c>
+      <c r="FU2">
+        <v>0</v>
+      </c>
+      <c r="FV2">
+        <v>0</v>
+      </c>
+      <c r="FW2">
+        <v>0</v>
+      </c>
+      <c r="FX2">
+        <v>0</v>
+      </c>
+      <c r="FY2">
+        <v>0</v>
+      </c>
+      <c r="FZ2">
+        <v>0</v>
+      </c>
+      <c r="GA2">
+        <v>0</v>
+      </c>
+      <c r="GB2">
+        <v>0</v>
+      </c>
+      <c r="GC2">
+        <v>0</v>
+      </c>
+      <c r="GD2">
+        <v>0</v>
+      </c>
+      <c r="GE2">
+        <v>0</v>
+      </c>
+      <c r="GF2">
+        <v>0</v>
+      </c>
+      <c r="GG2">
+        <v>0</v>
+      </c>
+      <c r="GH2">
+        <v>0</v>
+      </c>
+      <c r="GI2">
+        <v>0</v>
+      </c>
+      <c r="GJ2">
+        <v>0</v>
+      </c>
+      <c r="GK2">
+        <v>0</v>
+      </c>
+      <c r="GL2">
+        <v>0</v>
+      </c>
+      <c r="GM2">
+        <v>0</v>
+      </c>
+      <c r="GN2">
+        <v>0</v>
+      </c>
+      <c r="GO2">
+        <v>0</v>
+      </c>
+      <c r="GP2">
+        <v>0</v>
+      </c>
+      <c r="GQ2">
+        <v>0</v>
+      </c>
+      <c r="GR2">
+        <v>0</v>
+      </c>
+      <c r="GS2">
+        <v>0</v>
+      </c>
+      <c r="GT2">
+        <v>0</v>
+      </c>
+      <c r="GU2">
+        <v>0</v>
+      </c>
+      <c r="GV2">
+        <v>0</v>
+      </c>
+      <c r="GW2">
+        <v>0</v>
+      </c>
+      <c r="GX2">
+        <v>0</v>
+      </c>
+      <c r="GY2">
+        <v>0</v>
+      </c>
+      <c r="GZ2">
+        <v>0</v>
+      </c>
+      <c r="HA2">
+        <v>0</v>
+      </c>
+      <c r="HB2">
+        <v>0</v>
+      </c>
+      <c r="HC2">
+        <v>0</v>
+      </c>
+      <c r="HD2">
+        <v>0</v>
+      </c>
+      <c r="HE2">
+        <v>0</v>
+      </c>
+      <c r="HF2">
+        <v>0</v>
+      </c>
+      <c r="HG2">
+        <v>0</v>
+      </c>
+      <c r="HH2">
+        <v>0</v>
+      </c>
+      <c r="HI2">
+        <v>0</v>
+      </c>
+      <c r="HJ2">
+        <v>0</v>
+      </c>
+      <c r="HK2">
+        <v>0</v>
+      </c>
+      <c r="HL2">
+        <v>0</v>
+      </c>
+      <c r="HM2">
+        <v>0</v>
+      </c>
+      <c r="HN2">
+        <v>0</v>
+      </c>
+      <c r="HO2">
+        <v>0</v>
+      </c>
+      <c r="HP2">
+        <v>0</v>
+      </c>
+      <c r="HQ2">
+        <v>0</v>
+      </c>
+      <c r="HR2">
+        <v>0</v>
+      </c>
+      <c r="HS2">
+        <v>0</v>
+      </c>
+      <c r="HT2">
+        <v>0</v>
+      </c>
+      <c r="HU2">
+        <v>0</v>
+      </c>
+      <c r="HV2">
+        <v>0</v>
+      </c>
+      <c r="HW2">
+        <v>0</v>
+      </c>
+      <c r="HX2">
+        <v>0</v>
+      </c>
+      <c r="HY2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:233">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1191,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1397,8 +2142,371 @@
       <c r="DH3">
         <v>0</v>
       </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>0</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
+      </c>
+      <c r="EL3">
+        <v>0</v>
+      </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3">
+        <v>0</v>
+      </c>
+      <c r="ER3">
+        <v>0</v>
+      </c>
+      <c r="ES3">
+        <v>0</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0</v>
+      </c>
+      <c r="EW3">
+        <v>0</v>
+      </c>
+      <c r="EX3">
+        <v>0</v>
+      </c>
+      <c r="EY3">
+        <v>0</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0</v>
+      </c>
+      <c r="FB3">
+        <v>0</v>
+      </c>
+      <c r="FC3">
+        <v>0</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>0</v>
+      </c>
+      <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>0</v>
+      </c>
+      <c r="FN3">
+        <v>0</v>
+      </c>
+      <c r="FO3">
+        <v>0</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>0</v>
+      </c>
+      <c r="FV3">
+        <v>0</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>0</v>
+      </c>
+      <c r="FY3">
+        <v>0</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0</v>
+      </c>
+      <c r="GD3">
+        <v>0</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>0</v>
+      </c>
+      <c r="GI3">
+        <v>0</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>0</v>
+      </c>
+      <c r="GL3">
+        <v>0</v>
+      </c>
+      <c r="GM3">
+        <v>0</v>
+      </c>
+      <c r="GN3">
+        <v>0</v>
+      </c>
+      <c r="GO3">
+        <v>0</v>
+      </c>
+      <c r="GP3">
+        <v>0</v>
+      </c>
+      <c r="GQ3">
+        <v>0</v>
+      </c>
+      <c r="GR3">
+        <v>0</v>
+      </c>
+      <c r="GS3">
+        <v>0</v>
+      </c>
+      <c r="GT3">
+        <v>0</v>
+      </c>
+      <c r="GU3">
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <v>0</v>
+      </c>
+      <c r="GW3">
+        <v>0</v>
+      </c>
+      <c r="GX3">
+        <v>0</v>
+      </c>
+      <c r="GY3">
+        <v>0</v>
+      </c>
+      <c r="GZ3">
+        <v>0</v>
+      </c>
+      <c r="HA3">
+        <v>0</v>
+      </c>
+      <c r="HB3">
+        <v>0</v>
+      </c>
+      <c r="HC3">
+        <v>0</v>
+      </c>
+      <c r="HD3">
+        <v>0</v>
+      </c>
+      <c r="HE3">
+        <v>0</v>
+      </c>
+      <c r="HF3">
+        <v>0</v>
+      </c>
+      <c r="HG3">
+        <v>0</v>
+      </c>
+      <c r="HH3">
+        <v>0</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0</v>
+      </c>
+      <c r="HK3">
+        <v>0</v>
+      </c>
+      <c r="HL3">
+        <v>0</v>
+      </c>
+      <c r="HM3">
+        <v>0</v>
+      </c>
+      <c r="HN3">
+        <v>0</v>
+      </c>
+      <c r="HO3">
+        <v>0</v>
+      </c>
+      <c r="HP3">
+        <v>0</v>
+      </c>
+      <c r="HQ3">
+        <v>0</v>
+      </c>
+      <c r="HR3">
+        <v>0</v>
+      </c>
+      <c r="HS3">
+        <v>0</v>
+      </c>
+      <c r="HT3">
+        <v>0</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>0</v>
+      </c>
+      <c r="HW3">
+        <v>0</v>
+      </c>
+      <c r="HX3">
+        <v>0</v>
+      </c>
+      <c r="HY3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:233">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1538,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -1700,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="CW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY4">
         <v>0</v>
@@ -1735,8 +2843,371 @@
       <c r="DH4">
         <v>0</v>
       </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DY4">
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4">
+        <v>0</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4">
+        <v>0</v>
+      </c>
+      <c r="EP4">
+        <v>0</v>
+      </c>
+      <c r="EQ4">
+        <v>0</v>
+      </c>
+      <c r="ER4">
+        <v>0</v>
+      </c>
+      <c r="ES4">
+        <v>0</v>
+      </c>
+      <c r="ET4">
+        <v>0</v>
+      </c>
+      <c r="EU4">
+        <v>0</v>
+      </c>
+      <c r="EV4">
+        <v>0</v>
+      </c>
+      <c r="EW4">
+        <v>0</v>
+      </c>
+      <c r="EX4">
+        <v>0</v>
+      </c>
+      <c r="EY4">
+        <v>0</v>
+      </c>
+      <c r="EZ4">
+        <v>0</v>
+      </c>
+      <c r="FA4">
+        <v>0</v>
+      </c>
+      <c r="FB4">
+        <v>0</v>
+      </c>
+      <c r="FC4">
+        <v>0</v>
+      </c>
+      <c r="FD4">
+        <v>0</v>
+      </c>
+      <c r="FE4">
+        <v>0</v>
+      </c>
+      <c r="FF4">
+        <v>0</v>
+      </c>
+      <c r="FG4">
+        <v>0</v>
+      </c>
+      <c r="FH4">
+        <v>0</v>
+      </c>
+      <c r="FI4">
+        <v>0</v>
+      </c>
+      <c r="FJ4">
+        <v>0</v>
+      </c>
+      <c r="FK4">
+        <v>0</v>
+      </c>
+      <c r="FL4">
+        <v>0</v>
+      </c>
+      <c r="FM4">
+        <v>0</v>
+      </c>
+      <c r="FN4">
+        <v>0</v>
+      </c>
+      <c r="FO4">
+        <v>0</v>
+      </c>
+      <c r="FP4">
+        <v>0</v>
+      </c>
+      <c r="FQ4">
+        <v>0</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0</v>
+      </c>
+      <c r="FT4">
+        <v>0</v>
+      </c>
+      <c r="FU4">
+        <v>0</v>
+      </c>
+      <c r="FV4">
+        <v>0</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0</v>
+      </c>
+      <c r="FY4">
+        <v>0</v>
+      </c>
+      <c r="FZ4">
+        <v>0</v>
+      </c>
+      <c r="GA4">
+        <v>0</v>
+      </c>
+      <c r="GB4">
+        <v>0</v>
+      </c>
+      <c r="GC4">
+        <v>0</v>
+      </c>
+      <c r="GD4">
+        <v>0</v>
+      </c>
+      <c r="GE4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>0</v>
+      </c>
+      <c r="GI4">
+        <v>0</v>
+      </c>
+      <c r="GJ4">
+        <v>0</v>
+      </c>
+      <c r="GK4">
+        <v>0</v>
+      </c>
+      <c r="GL4">
+        <v>0</v>
+      </c>
+      <c r="GM4">
+        <v>0</v>
+      </c>
+      <c r="GN4">
+        <v>0</v>
+      </c>
+      <c r="GO4">
+        <v>0</v>
+      </c>
+      <c r="GP4">
+        <v>0</v>
+      </c>
+      <c r="GQ4">
+        <v>0</v>
+      </c>
+      <c r="GR4">
+        <v>0</v>
+      </c>
+      <c r="GS4">
+        <v>0</v>
+      </c>
+      <c r="GT4">
+        <v>0</v>
+      </c>
+      <c r="GU4">
+        <v>0</v>
+      </c>
+      <c r="GV4">
+        <v>0</v>
+      </c>
+      <c r="GW4">
+        <v>0</v>
+      </c>
+      <c r="GX4">
+        <v>0</v>
+      </c>
+      <c r="GY4">
+        <v>0</v>
+      </c>
+      <c r="GZ4">
+        <v>0</v>
+      </c>
+      <c r="HA4">
+        <v>0</v>
+      </c>
+      <c r="HB4">
+        <v>0</v>
+      </c>
+      <c r="HC4">
+        <v>0</v>
+      </c>
+      <c r="HD4">
+        <v>0</v>
+      </c>
+      <c r="HE4">
+        <v>0</v>
+      </c>
+      <c r="HF4">
+        <v>0</v>
+      </c>
+      <c r="HG4">
+        <v>0</v>
+      </c>
+      <c r="HH4">
+        <v>0</v>
+      </c>
+      <c r="HI4">
+        <v>0</v>
+      </c>
+      <c r="HJ4">
+        <v>0</v>
+      </c>
+      <c r="HK4">
+        <v>0</v>
+      </c>
+      <c r="HL4">
+        <v>0</v>
+      </c>
+      <c r="HM4">
+        <v>0</v>
+      </c>
+      <c r="HN4">
+        <v>0</v>
+      </c>
+      <c r="HO4">
+        <v>0</v>
+      </c>
+      <c r="HP4">
+        <v>0</v>
+      </c>
+      <c r="HQ4">
+        <v>0</v>
+      </c>
+      <c r="HR4">
+        <v>0</v>
+      </c>
+      <c r="HS4">
+        <v>0</v>
+      </c>
+      <c r="HT4">
+        <v>0</v>
+      </c>
+      <c r="HU4">
+        <v>0</v>
+      </c>
+      <c r="HV4">
+        <v>0</v>
+      </c>
+      <c r="HW4">
+        <v>0</v>
+      </c>
+      <c r="HX4">
+        <v>0</v>
+      </c>
+      <c r="HY4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:233">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1777,13 +3248,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1855,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -2062,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="DE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5">
         <v>0</v>
@@ -2073,8 +3544,371 @@
       <c r="DH5">
         <v>0</v>
       </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DT5">
+        <v>0</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DV5">
+        <v>0</v>
+      </c>
+      <c r="DW5">
+        <v>0</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="DY5">
+        <v>0</v>
+      </c>
+      <c r="DZ5">
+        <v>0</v>
+      </c>
+      <c r="EA5">
+        <v>0</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+      <c r="EG5">
+        <v>0</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5">
+        <v>0</v>
+      </c>
+      <c r="EJ5">
+        <v>0</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
+      <c r="EL5">
+        <v>0</v>
+      </c>
+      <c r="EM5">
+        <v>0</v>
+      </c>
+      <c r="EN5">
+        <v>0</v>
+      </c>
+      <c r="EO5">
+        <v>0</v>
+      </c>
+      <c r="EP5">
+        <v>0</v>
+      </c>
+      <c r="EQ5">
+        <v>0</v>
+      </c>
+      <c r="ER5">
+        <v>0</v>
+      </c>
+      <c r="ES5">
+        <v>0</v>
+      </c>
+      <c r="ET5">
+        <v>0</v>
+      </c>
+      <c r="EU5">
+        <v>0</v>
+      </c>
+      <c r="EV5">
+        <v>0</v>
+      </c>
+      <c r="EW5">
+        <v>0</v>
+      </c>
+      <c r="EX5">
+        <v>0</v>
+      </c>
+      <c r="EY5">
+        <v>0</v>
+      </c>
+      <c r="EZ5">
+        <v>0</v>
+      </c>
+      <c r="FA5">
+        <v>0</v>
+      </c>
+      <c r="FB5">
+        <v>0</v>
+      </c>
+      <c r="FC5">
+        <v>0</v>
+      </c>
+      <c r="FD5">
+        <v>0</v>
+      </c>
+      <c r="FE5">
+        <v>0</v>
+      </c>
+      <c r="FF5">
+        <v>0</v>
+      </c>
+      <c r="FG5">
+        <v>0</v>
+      </c>
+      <c r="FH5">
+        <v>0</v>
+      </c>
+      <c r="FI5">
+        <v>0</v>
+      </c>
+      <c r="FJ5">
+        <v>0</v>
+      </c>
+      <c r="FK5">
+        <v>0</v>
+      </c>
+      <c r="FL5">
+        <v>0</v>
+      </c>
+      <c r="FM5">
+        <v>0</v>
+      </c>
+      <c r="FN5">
+        <v>0</v>
+      </c>
+      <c r="FO5">
+        <v>0</v>
+      </c>
+      <c r="FP5">
+        <v>0</v>
+      </c>
+      <c r="FQ5">
+        <v>0</v>
+      </c>
+      <c r="FR5">
+        <v>0</v>
+      </c>
+      <c r="FS5">
+        <v>0</v>
+      </c>
+      <c r="FT5">
+        <v>0</v>
+      </c>
+      <c r="FU5">
+        <v>0</v>
+      </c>
+      <c r="FV5">
+        <v>0</v>
+      </c>
+      <c r="FW5">
+        <v>0</v>
+      </c>
+      <c r="FX5">
+        <v>0</v>
+      </c>
+      <c r="FY5">
+        <v>0</v>
+      </c>
+      <c r="FZ5">
+        <v>0</v>
+      </c>
+      <c r="GA5">
+        <v>0</v>
+      </c>
+      <c r="GB5">
+        <v>0</v>
+      </c>
+      <c r="GC5">
+        <v>0</v>
+      </c>
+      <c r="GD5">
+        <v>0</v>
+      </c>
+      <c r="GE5">
+        <v>0</v>
+      </c>
+      <c r="GF5">
+        <v>0</v>
+      </c>
+      <c r="GG5">
+        <v>0</v>
+      </c>
+      <c r="GH5">
+        <v>0</v>
+      </c>
+      <c r="GI5">
+        <v>0</v>
+      </c>
+      <c r="GJ5">
+        <v>0</v>
+      </c>
+      <c r="GK5">
+        <v>0</v>
+      </c>
+      <c r="GL5">
+        <v>0</v>
+      </c>
+      <c r="GM5">
+        <v>0</v>
+      </c>
+      <c r="GN5">
+        <v>0</v>
+      </c>
+      <c r="GO5">
+        <v>0</v>
+      </c>
+      <c r="GP5">
+        <v>0</v>
+      </c>
+      <c r="GQ5">
+        <v>0</v>
+      </c>
+      <c r="GR5">
+        <v>0</v>
+      </c>
+      <c r="GS5">
+        <v>0</v>
+      </c>
+      <c r="GT5">
+        <v>0</v>
+      </c>
+      <c r="GU5">
+        <v>0</v>
+      </c>
+      <c r="GV5">
+        <v>0</v>
+      </c>
+      <c r="GW5">
+        <v>0</v>
+      </c>
+      <c r="GX5">
+        <v>0</v>
+      </c>
+      <c r="GY5">
+        <v>1</v>
+      </c>
+      <c r="GZ5">
+        <v>0</v>
+      </c>
+      <c r="HA5">
+        <v>0</v>
+      </c>
+      <c r="HB5">
+        <v>0</v>
+      </c>
+      <c r="HC5">
+        <v>0</v>
+      </c>
+      <c r="HD5">
+        <v>0</v>
+      </c>
+      <c r="HE5">
+        <v>0</v>
+      </c>
+      <c r="HF5">
+        <v>0</v>
+      </c>
+      <c r="HG5">
+        <v>0</v>
+      </c>
+      <c r="HH5">
+        <v>0</v>
+      </c>
+      <c r="HI5">
+        <v>0</v>
+      </c>
+      <c r="HJ5">
+        <v>0</v>
+      </c>
+      <c r="HK5">
+        <v>0</v>
+      </c>
+      <c r="HL5">
+        <v>0</v>
+      </c>
+      <c r="HM5">
+        <v>0</v>
+      </c>
+      <c r="HN5">
+        <v>0</v>
+      </c>
+      <c r="HO5">
+        <v>0</v>
+      </c>
+      <c r="HP5">
+        <v>0</v>
+      </c>
+      <c r="HQ5">
+        <v>0</v>
+      </c>
+      <c r="HR5">
+        <v>0</v>
+      </c>
+      <c r="HS5">
+        <v>0</v>
+      </c>
+      <c r="HT5">
+        <v>0</v>
+      </c>
+      <c r="HU5">
+        <v>0</v>
+      </c>
+      <c r="HV5">
+        <v>0</v>
+      </c>
+      <c r="HW5">
+        <v>0</v>
+      </c>
+      <c r="HX5">
+        <v>0</v>
+      </c>
+      <c r="HY5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:233">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2115,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2193,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6">
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -2340,10 +4174,10 @@
         <v>0</v>
       </c>
       <c r="CK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM6">
         <v>0</v>
@@ -2364,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="CS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU6">
         <v>0</v>
@@ -2400,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="DE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6">
         <v>0</v>
@@ -2411,8 +4245,371 @@
       <c r="DH6">
         <v>0</v>
       </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DT6">
+        <v>0</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6">
+        <v>0</v>
+      </c>
+      <c r="DW6">
+        <v>0</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DY6">
+        <v>0</v>
+      </c>
+      <c r="DZ6">
+        <v>0</v>
+      </c>
+      <c r="EA6">
+        <v>0</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EE6">
+        <v>0</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EG6">
+        <v>0</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6">
+        <v>0</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+      <c r="EM6">
+        <v>0</v>
+      </c>
+      <c r="EN6">
+        <v>0</v>
+      </c>
+      <c r="EO6">
+        <v>0</v>
+      </c>
+      <c r="EP6">
+        <v>0</v>
+      </c>
+      <c r="EQ6">
+        <v>0</v>
+      </c>
+      <c r="ER6">
+        <v>0</v>
+      </c>
+      <c r="ES6">
+        <v>0</v>
+      </c>
+      <c r="ET6">
+        <v>0</v>
+      </c>
+      <c r="EU6">
+        <v>0</v>
+      </c>
+      <c r="EV6">
+        <v>0</v>
+      </c>
+      <c r="EW6">
+        <v>0</v>
+      </c>
+      <c r="EX6">
+        <v>0</v>
+      </c>
+      <c r="EY6">
+        <v>0</v>
+      </c>
+      <c r="EZ6">
+        <v>0</v>
+      </c>
+      <c r="FA6">
+        <v>0</v>
+      </c>
+      <c r="FB6">
+        <v>0</v>
+      </c>
+      <c r="FC6">
+        <v>0</v>
+      </c>
+      <c r="FD6">
+        <v>0</v>
+      </c>
+      <c r="FE6">
+        <v>0</v>
+      </c>
+      <c r="FF6">
+        <v>0</v>
+      </c>
+      <c r="FG6">
+        <v>0</v>
+      </c>
+      <c r="FH6">
+        <v>0</v>
+      </c>
+      <c r="FI6">
+        <v>0</v>
+      </c>
+      <c r="FJ6">
+        <v>0</v>
+      </c>
+      <c r="FK6">
+        <v>0</v>
+      </c>
+      <c r="FL6">
+        <v>0</v>
+      </c>
+      <c r="FM6">
+        <v>0</v>
+      </c>
+      <c r="FN6">
+        <v>0</v>
+      </c>
+      <c r="FO6">
+        <v>0</v>
+      </c>
+      <c r="FP6">
+        <v>0</v>
+      </c>
+      <c r="FQ6">
+        <v>0</v>
+      </c>
+      <c r="FR6">
+        <v>0</v>
+      </c>
+      <c r="FS6">
+        <v>0</v>
+      </c>
+      <c r="FT6">
+        <v>0</v>
+      </c>
+      <c r="FU6">
+        <v>0</v>
+      </c>
+      <c r="FV6">
+        <v>0</v>
+      </c>
+      <c r="FW6">
+        <v>0</v>
+      </c>
+      <c r="FX6">
+        <v>0</v>
+      </c>
+      <c r="FY6">
+        <v>0</v>
+      </c>
+      <c r="FZ6">
+        <v>0</v>
+      </c>
+      <c r="GA6">
+        <v>0</v>
+      </c>
+      <c r="GB6">
+        <v>0</v>
+      </c>
+      <c r="GC6">
+        <v>0</v>
+      </c>
+      <c r="GD6">
+        <v>0</v>
+      </c>
+      <c r="GE6">
+        <v>0</v>
+      </c>
+      <c r="GF6">
+        <v>0</v>
+      </c>
+      <c r="GG6">
+        <v>0</v>
+      </c>
+      <c r="GH6">
+        <v>0</v>
+      </c>
+      <c r="GI6">
+        <v>0</v>
+      </c>
+      <c r="GJ6">
+        <v>0</v>
+      </c>
+      <c r="GK6">
+        <v>0</v>
+      </c>
+      <c r="GL6">
+        <v>0</v>
+      </c>
+      <c r="GM6">
+        <v>0</v>
+      </c>
+      <c r="GN6">
+        <v>0</v>
+      </c>
+      <c r="GO6">
+        <v>0</v>
+      </c>
+      <c r="GP6">
+        <v>0</v>
+      </c>
+      <c r="GQ6">
+        <v>0</v>
+      </c>
+      <c r="GR6">
+        <v>0</v>
+      </c>
+      <c r="GS6">
+        <v>0</v>
+      </c>
+      <c r="GT6">
+        <v>0</v>
+      </c>
+      <c r="GU6">
+        <v>0</v>
+      </c>
+      <c r="GV6">
+        <v>0</v>
+      </c>
+      <c r="GW6">
+        <v>0</v>
+      </c>
+      <c r="GX6">
+        <v>0</v>
+      </c>
+      <c r="GY6">
+        <v>1</v>
+      </c>
+      <c r="GZ6">
+        <v>0</v>
+      </c>
+      <c r="HA6">
+        <v>0</v>
+      </c>
+      <c r="HB6">
+        <v>0</v>
+      </c>
+      <c r="HC6">
+        <v>0</v>
+      </c>
+      <c r="HD6">
+        <v>0</v>
+      </c>
+      <c r="HE6">
+        <v>0</v>
+      </c>
+      <c r="HF6">
+        <v>0</v>
+      </c>
+      <c r="HG6">
+        <v>0</v>
+      </c>
+      <c r="HH6">
+        <v>0</v>
+      </c>
+      <c r="HI6">
+        <v>0</v>
+      </c>
+      <c r="HJ6">
+        <v>0</v>
+      </c>
+      <c r="HK6">
+        <v>0</v>
+      </c>
+      <c r="HL6">
+        <v>0</v>
+      </c>
+      <c r="HM6">
+        <v>0</v>
+      </c>
+      <c r="HN6">
+        <v>0</v>
+      </c>
+      <c r="HO6">
+        <v>0</v>
+      </c>
+      <c r="HP6">
+        <v>0</v>
+      </c>
+      <c r="HQ6">
+        <v>0</v>
+      </c>
+      <c r="HR6">
+        <v>0</v>
+      </c>
+      <c r="HS6">
+        <v>0</v>
+      </c>
+      <c r="HT6">
+        <v>0</v>
+      </c>
+      <c r="HU6">
+        <v>0</v>
+      </c>
+      <c r="HV6">
+        <v>0</v>
+      </c>
+      <c r="HW6">
+        <v>0</v>
+      </c>
+      <c r="HX6">
+        <v>0</v>
+      </c>
+      <c r="HY6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:233">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2438,16 +4635,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -2465,19 +4662,19 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2516,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -2573,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -2621,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="BR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7">
         <v>0</v>
@@ -2630,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7">
         <v>0</v>
@@ -2669,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="CH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI7">
         <v>0</v>
@@ -2678,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="CK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM7">
         <v>0</v>
@@ -2738,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="DE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7">
         <v>0</v>
@@ -2749,8 +4946,371 @@
       <c r="DH7">
         <v>0</v>
       </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7">
+        <v>0</v>
+      </c>
+      <c r="DT7">
+        <v>0</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7">
+        <v>0</v>
+      </c>
+      <c r="DW7">
+        <v>0</v>
+      </c>
+      <c r="DX7">
+        <v>0</v>
+      </c>
+      <c r="DY7">
+        <v>0</v>
+      </c>
+      <c r="DZ7">
+        <v>0</v>
+      </c>
+      <c r="EA7">
+        <v>0</v>
+      </c>
+      <c r="EB7">
+        <v>0</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7">
+        <v>0</v>
+      </c>
+      <c r="EJ7">
+        <v>0</v>
+      </c>
+      <c r="EK7">
+        <v>0</v>
+      </c>
+      <c r="EL7">
+        <v>0</v>
+      </c>
+      <c r="EM7">
+        <v>0</v>
+      </c>
+      <c r="EN7">
+        <v>0</v>
+      </c>
+      <c r="EO7">
+        <v>0</v>
+      </c>
+      <c r="EP7">
+        <v>0</v>
+      </c>
+      <c r="EQ7">
+        <v>0</v>
+      </c>
+      <c r="ER7">
+        <v>0</v>
+      </c>
+      <c r="ES7">
+        <v>0</v>
+      </c>
+      <c r="ET7">
+        <v>0</v>
+      </c>
+      <c r="EU7">
+        <v>0</v>
+      </c>
+      <c r="EV7">
+        <v>0</v>
+      </c>
+      <c r="EW7">
+        <v>0</v>
+      </c>
+      <c r="EX7">
+        <v>0</v>
+      </c>
+      <c r="EY7">
+        <v>0</v>
+      </c>
+      <c r="EZ7">
+        <v>0</v>
+      </c>
+      <c r="FA7">
+        <v>0</v>
+      </c>
+      <c r="FB7">
+        <v>0</v>
+      </c>
+      <c r="FC7">
+        <v>0</v>
+      </c>
+      <c r="FD7">
+        <v>0</v>
+      </c>
+      <c r="FE7">
+        <v>0</v>
+      </c>
+      <c r="FF7">
+        <v>0</v>
+      </c>
+      <c r="FG7">
+        <v>1</v>
+      </c>
+      <c r="FH7">
+        <v>1</v>
+      </c>
+      <c r="FI7">
+        <v>0</v>
+      </c>
+      <c r="FJ7">
+        <v>0</v>
+      </c>
+      <c r="FK7">
+        <v>0</v>
+      </c>
+      <c r="FL7">
+        <v>0</v>
+      </c>
+      <c r="FM7">
+        <v>0</v>
+      </c>
+      <c r="FN7">
+        <v>0</v>
+      </c>
+      <c r="FO7">
+        <v>0</v>
+      </c>
+      <c r="FP7">
+        <v>0</v>
+      </c>
+      <c r="FQ7">
+        <v>0</v>
+      </c>
+      <c r="FR7">
+        <v>0</v>
+      </c>
+      <c r="FS7">
+        <v>0</v>
+      </c>
+      <c r="FT7">
+        <v>0</v>
+      </c>
+      <c r="FU7">
+        <v>0</v>
+      </c>
+      <c r="FV7">
+        <v>0</v>
+      </c>
+      <c r="FW7">
+        <v>0</v>
+      </c>
+      <c r="FX7">
+        <v>0</v>
+      </c>
+      <c r="FY7">
+        <v>0</v>
+      </c>
+      <c r="FZ7">
+        <v>1</v>
+      </c>
+      <c r="GA7">
+        <v>1</v>
+      </c>
+      <c r="GB7">
+        <v>0</v>
+      </c>
+      <c r="GC7">
+        <v>0</v>
+      </c>
+      <c r="GD7">
+        <v>0</v>
+      </c>
+      <c r="GE7">
+        <v>0</v>
+      </c>
+      <c r="GF7">
+        <v>0</v>
+      </c>
+      <c r="GG7">
+        <v>0</v>
+      </c>
+      <c r="GH7">
+        <v>0</v>
+      </c>
+      <c r="GI7">
+        <v>0</v>
+      </c>
+      <c r="GJ7">
+        <v>0</v>
+      </c>
+      <c r="GK7">
+        <v>0</v>
+      </c>
+      <c r="GL7">
+        <v>0</v>
+      </c>
+      <c r="GM7">
+        <v>0</v>
+      </c>
+      <c r="GN7">
+        <v>0</v>
+      </c>
+      <c r="GO7">
+        <v>0</v>
+      </c>
+      <c r="GP7">
+        <v>0</v>
+      </c>
+      <c r="GQ7">
+        <v>0</v>
+      </c>
+      <c r="GR7">
+        <v>0</v>
+      </c>
+      <c r="GS7">
+        <v>0</v>
+      </c>
+      <c r="GT7">
+        <v>0</v>
+      </c>
+      <c r="GU7">
+        <v>0</v>
+      </c>
+      <c r="GV7">
+        <v>0</v>
+      </c>
+      <c r="GW7">
+        <v>0</v>
+      </c>
+      <c r="GX7">
+        <v>0</v>
+      </c>
+      <c r="GY7">
+        <v>1</v>
+      </c>
+      <c r="GZ7">
+        <v>0</v>
+      </c>
+      <c r="HA7">
+        <v>0</v>
+      </c>
+      <c r="HB7">
+        <v>0</v>
+      </c>
+      <c r="HC7">
+        <v>0</v>
+      </c>
+      <c r="HD7">
+        <v>0</v>
+      </c>
+      <c r="HE7">
+        <v>0</v>
+      </c>
+      <c r="HF7">
+        <v>0</v>
+      </c>
+      <c r="HG7">
+        <v>0</v>
+      </c>
+      <c r="HH7">
+        <v>0</v>
+      </c>
+      <c r="HI7">
+        <v>0</v>
+      </c>
+      <c r="HJ7">
+        <v>0</v>
+      </c>
+      <c r="HK7">
+        <v>0</v>
+      </c>
+      <c r="HL7">
+        <v>0</v>
+      </c>
+      <c r="HM7">
+        <v>0</v>
+      </c>
+      <c r="HN7">
+        <v>0</v>
+      </c>
+      <c r="HO7">
+        <v>0</v>
+      </c>
+      <c r="HP7">
+        <v>0</v>
+      </c>
+      <c r="HQ7">
+        <v>0</v>
+      </c>
+      <c r="HR7">
+        <v>0</v>
+      </c>
+      <c r="HS7">
+        <v>0</v>
+      </c>
+      <c r="HT7">
+        <v>0</v>
+      </c>
+      <c r="HU7">
+        <v>0</v>
+      </c>
+      <c r="HV7">
+        <v>0</v>
+      </c>
+      <c r="HW7">
+        <v>0</v>
+      </c>
+      <c r="HX7">
+        <v>0</v>
+      </c>
+      <c r="HY7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:233">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2776,16 +5336,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2803,10 +5363,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2830,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -2854,10 +5414,10 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -2866,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2902,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="AY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2911,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -2920,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="BE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8">
         <v>0</v>
@@ -2959,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="BR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8">
         <v>0</v>
@@ -2968,10 +5528,10 @@
         <v>0</v>
       </c>
       <c r="BU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -2992,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="CC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD8">
         <v>0</v>
@@ -3007,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="CH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI8">
         <v>0</v>
@@ -3022,13 +5582,13 @@
         <v>0</v>
       </c>
       <c r="CM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP8">
         <v>0</v>
@@ -3058,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="CY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ8">
         <v>0</v>
@@ -3076,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="DE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8">
         <v>0</v>
@@ -3087,8 +5647,371 @@
       <c r="DH8">
         <v>0</v>
       </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>1</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8">
+        <v>0</v>
+      </c>
+      <c r="DU8">
+        <v>0</v>
+      </c>
+      <c r="DV8">
+        <v>0</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+      <c r="DX8">
+        <v>0</v>
+      </c>
+      <c r="DY8">
+        <v>0</v>
+      </c>
+      <c r="DZ8">
+        <v>0</v>
+      </c>
+      <c r="EA8">
+        <v>0</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
+      </c>
+      <c r="EC8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>0</v>
+      </c>
+      <c r="EG8">
+        <v>0</v>
+      </c>
+      <c r="EH8">
+        <v>0</v>
+      </c>
+      <c r="EI8">
+        <v>0</v>
+      </c>
+      <c r="EJ8">
+        <v>0</v>
+      </c>
+      <c r="EK8">
+        <v>0</v>
+      </c>
+      <c r="EL8">
+        <v>0</v>
+      </c>
+      <c r="EM8">
+        <v>1</v>
+      </c>
+      <c r="EN8">
+        <v>0</v>
+      </c>
+      <c r="EO8">
+        <v>0</v>
+      </c>
+      <c r="EP8">
+        <v>1</v>
+      </c>
+      <c r="EQ8">
+        <v>0</v>
+      </c>
+      <c r="ER8">
+        <v>0</v>
+      </c>
+      <c r="ES8">
+        <v>0</v>
+      </c>
+      <c r="ET8">
+        <v>0</v>
+      </c>
+      <c r="EU8">
+        <v>0</v>
+      </c>
+      <c r="EV8">
+        <v>0</v>
+      </c>
+      <c r="EW8">
+        <v>0</v>
+      </c>
+      <c r="EX8">
+        <v>0</v>
+      </c>
+      <c r="EY8">
+        <v>0</v>
+      </c>
+      <c r="EZ8">
+        <v>0</v>
+      </c>
+      <c r="FA8">
+        <v>0</v>
+      </c>
+      <c r="FB8">
+        <v>0</v>
+      </c>
+      <c r="FC8">
+        <v>0</v>
+      </c>
+      <c r="FD8">
+        <v>1</v>
+      </c>
+      <c r="FE8">
+        <v>0</v>
+      </c>
+      <c r="FF8">
+        <v>0</v>
+      </c>
+      <c r="FG8">
+        <v>1</v>
+      </c>
+      <c r="FH8">
+        <v>1</v>
+      </c>
+      <c r="FI8">
+        <v>0</v>
+      </c>
+      <c r="FJ8">
+        <v>0</v>
+      </c>
+      <c r="FK8">
+        <v>0</v>
+      </c>
+      <c r="FL8">
+        <v>0</v>
+      </c>
+      <c r="FM8">
+        <v>0</v>
+      </c>
+      <c r="FN8">
+        <v>0</v>
+      </c>
+      <c r="FO8">
+        <v>0</v>
+      </c>
+      <c r="FP8">
+        <v>0</v>
+      </c>
+      <c r="FQ8">
+        <v>0</v>
+      </c>
+      <c r="FR8">
+        <v>0</v>
+      </c>
+      <c r="FS8">
+        <v>0</v>
+      </c>
+      <c r="FT8">
+        <v>0</v>
+      </c>
+      <c r="FU8">
+        <v>0</v>
+      </c>
+      <c r="FV8">
+        <v>0</v>
+      </c>
+      <c r="FW8">
+        <v>1</v>
+      </c>
+      <c r="FX8">
+        <v>0</v>
+      </c>
+      <c r="FY8">
+        <v>0</v>
+      </c>
+      <c r="FZ8">
+        <v>1</v>
+      </c>
+      <c r="GA8">
+        <v>1</v>
+      </c>
+      <c r="GB8">
+        <v>0</v>
+      </c>
+      <c r="GC8">
+        <v>0</v>
+      </c>
+      <c r="GD8">
+        <v>0</v>
+      </c>
+      <c r="GE8">
+        <v>0</v>
+      </c>
+      <c r="GF8">
+        <v>0</v>
+      </c>
+      <c r="GG8">
+        <v>0</v>
+      </c>
+      <c r="GH8">
+        <v>0</v>
+      </c>
+      <c r="GI8">
+        <v>0</v>
+      </c>
+      <c r="GJ8">
+        <v>0</v>
+      </c>
+      <c r="GK8">
+        <v>0</v>
+      </c>
+      <c r="GL8">
+        <v>0</v>
+      </c>
+      <c r="GM8">
+        <v>0</v>
+      </c>
+      <c r="GN8">
+        <v>0</v>
+      </c>
+      <c r="GO8">
+        <v>0</v>
+      </c>
+      <c r="GP8">
+        <v>0</v>
+      </c>
+      <c r="GQ8">
+        <v>0</v>
+      </c>
+      <c r="GR8">
+        <v>0</v>
+      </c>
+      <c r="GS8">
+        <v>0</v>
+      </c>
+      <c r="GT8">
+        <v>0</v>
+      </c>
+      <c r="GU8">
+        <v>0</v>
+      </c>
+      <c r="GV8">
+        <v>0</v>
+      </c>
+      <c r="GW8">
+        <v>0</v>
+      </c>
+      <c r="GX8">
+        <v>0</v>
+      </c>
+      <c r="GY8">
+        <v>0</v>
+      </c>
+      <c r="GZ8">
+        <v>0</v>
+      </c>
+      <c r="HA8">
+        <v>0</v>
+      </c>
+      <c r="HB8">
+        <v>0</v>
+      </c>
+      <c r="HC8">
+        <v>0</v>
+      </c>
+      <c r="HD8">
+        <v>0</v>
+      </c>
+      <c r="HE8">
+        <v>0</v>
+      </c>
+      <c r="HF8">
+        <v>0</v>
+      </c>
+      <c r="HG8">
+        <v>0</v>
+      </c>
+      <c r="HH8">
+        <v>0</v>
+      </c>
+      <c r="HI8">
+        <v>0</v>
+      </c>
+      <c r="HJ8">
+        <v>0</v>
+      </c>
+      <c r="HK8">
+        <v>1</v>
+      </c>
+      <c r="HL8">
+        <v>1</v>
+      </c>
+      <c r="HM8">
+        <v>0</v>
+      </c>
+      <c r="HN8">
+        <v>0</v>
+      </c>
+      <c r="HO8">
+        <v>0</v>
+      </c>
+      <c r="HP8">
+        <v>0</v>
+      </c>
+      <c r="HQ8">
+        <v>0</v>
+      </c>
+      <c r="HR8">
+        <v>0</v>
+      </c>
+      <c r="HS8">
+        <v>0</v>
+      </c>
+      <c r="HT8">
+        <v>1</v>
+      </c>
+      <c r="HU8">
+        <v>0</v>
+      </c>
+      <c r="HV8">
+        <v>0</v>
+      </c>
+      <c r="HW8">
+        <v>0</v>
+      </c>
+      <c r="HX8">
+        <v>0</v>
+      </c>
+      <c r="HY8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:233">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3096,672 +6019,2101 @@
         <v>0</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>1</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>1</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>1</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>1</v>
+      </c>
+      <c r="CC9">
+        <v>1</v>
+      </c>
+      <c r="CD9">
+        <v>1</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>1</v>
+      </c>
+      <c r="CN9">
+        <v>1</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>1</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>1</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>1</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>1</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
+      <c r="DT9">
+        <v>0</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DV9">
+        <v>0</v>
+      </c>
+      <c r="DW9">
+        <v>0</v>
+      </c>
+      <c r="DX9">
+        <v>0</v>
+      </c>
+      <c r="DY9">
+        <v>0</v>
+      </c>
+      <c r="DZ9">
+        <v>0</v>
+      </c>
+      <c r="EA9">
+        <v>0</v>
+      </c>
+      <c r="EB9">
+        <v>0</v>
+      </c>
+      <c r="EC9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
+      <c r="EE9">
+        <v>0</v>
+      </c>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9">
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <v>0</v>
+      </c>
+      <c r="EI9">
+        <v>0</v>
+      </c>
+      <c r="EJ9">
+        <v>0</v>
+      </c>
+      <c r="EK9">
+        <v>0</v>
+      </c>
+      <c r="EL9">
+        <v>1</v>
+      </c>
+      <c r="EM9">
+        <v>1</v>
+      </c>
+      <c r="EN9">
+        <v>0</v>
+      </c>
+      <c r="EO9">
+        <v>0</v>
+      </c>
+      <c r="EP9">
+        <v>1</v>
+      </c>
+      <c r="EQ9">
+        <v>1</v>
+      </c>
+      <c r="ER9">
+        <v>0</v>
+      </c>
+      <c r="ES9">
+        <v>0</v>
+      </c>
+      <c r="ET9">
+        <v>0</v>
+      </c>
+      <c r="EU9">
+        <v>0</v>
+      </c>
+      <c r="EV9">
+        <v>0</v>
+      </c>
+      <c r="EW9">
+        <v>0</v>
+      </c>
+      <c r="EX9">
+        <v>0</v>
+      </c>
+      <c r="EY9">
+        <v>0</v>
+      </c>
+      <c r="EZ9">
+        <v>0</v>
+      </c>
+      <c r="FA9">
+        <v>0</v>
+      </c>
+      <c r="FB9">
+        <v>0</v>
+      </c>
+      <c r="FC9">
+        <v>0</v>
+      </c>
+      <c r="FD9">
+        <v>1</v>
+      </c>
+      <c r="FE9">
+        <v>0</v>
+      </c>
+      <c r="FF9">
+        <v>0</v>
+      </c>
+      <c r="FG9">
+        <v>0</v>
+      </c>
+      <c r="FH9">
+        <v>0</v>
+      </c>
+      <c r="FI9">
+        <v>0</v>
+      </c>
+      <c r="FJ9">
+        <v>0</v>
+      </c>
+      <c r="FK9">
+        <v>1</v>
+      </c>
+      <c r="FL9">
+        <v>0</v>
+      </c>
+      <c r="FM9">
+        <v>0</v>
+      </c>
+      <c r="FN9">
+        <v>0</v>
+      </c>
+      <c r="FO9">
+        <v>0</v>
+      </c>
+      <c r="FP9">
+        <v>0</v>
+      </c>
+      <c r="FQ9">
+        <v>0</v>
+      </c>
+      <c r="FR9">
+        <v>0</v>
+      </c>
+      <c r="FS9">
+        <v>0</v>
+      </c>
+      <c r="FT9">
+        <v>0</v>
+      </c>
+      <c r="FU9">
+        <v>0</v>
+      </c>
+      <c r="FV9">
+        <v>0</v>
+      </c>
+      <c r="FW9">
+        <v>1</v>
+      </c>
+      <c r="FX9">
+        <v>0</v>
+      </c>
+      <c r="FY9">
+        <v>0</v>
+      </c>
+      <c r="FZ9">
+        <v>0</v>
+      </c>
+      <c r="GA9">
+        <v>0</v>
+      </c>
+      <c r="GB9">
+        <v>0</v>
+      </c>
+      <c r="GC9">
+        <v>0</v>
+      </c>
+      <c r="GD9">
+        <v>1</v>
+      </c>
+      <c r="GE9">
+        <v>0</v>
+      </c>
+      <c r="GF9">
+        <v>0</v>
+      </c>
+      <c r="GG9">
+        <v>0</v>
+      </c>
+      <c r="GH9">
+        <v>0</v>
+      </c>
+      <c r="GI9">
+        <v>0</v>
+      </c>
+      <c r="GJ9">
+        <v>0</v>
+      </c>
+      <c r="GK9">
+        <v>0</v>
+      </c>
+      <c r="GL9">
+        <v>0</v>
+      </c>
+      <c r="GM9">
+        <v>0</v>
+      </c>
+      <c r="GN9">
+        <v>0</v>
+      </c>
+      <c r="GO9">
+        <v>1</v>
+      </c>
+      <c r="GP9">
+        <v>0</v>
+      </c>
+      <c r="GQ9">
+        <v>0</v>
+      </c>
+      <c r="GR9">
+        <v>0</v>
+      </c>
+      <c r="GS9">
+        <v>0</v>
+      </c>
+      <c r="GT9">
+        <v>0</v>
+      </c>
+      <c r="GU9">
+        <v>0</v>
+      </c>
+      <c r="GV9">
+        <v>0</v>
+      </c>
+      <c r="GW9">
+        <v>0</v>
+      </c>
+      <c r="GX9">
+        <v>0</v>
+      </c>
+      <c r="GY9">
+        <v>1</v>
+      </c>
+      <c r="GZ9">
+        <v>0</v>
+      </c>
+      <c r="HA9">
+        <v>0</v>
+      </c>
+      <c r="HB9">
+        <v>0</v>
+      </c>
+      <c r="HC9">
+        <v>0</v>
+      </c>
+      <c r="HD9">
+        <v>0</v>
+      </c>
+      <c r="HE9">
+        <v>0</v>
+      </c>
+      <c r="HF9">
+        <v>0</v>
+      </c>
+      <c r="HG9">
+        <v>0</v>
+      </c>
+      <c r="HH9">
+        <v>0</v>
+      </c>
+      <c r="HI9">
+        <v>0</v>
+      </c>
+      <c r="HJ9">
+        <v>0</v>
+      </c>
+      <c r="HK9">
+        <v>0</v>
+      </c>
+      <c r="HL9">
+        <v>0</v>
+      </c>
+      <c r="HM9">
+        <v>0</v>
+      </c>
+      <c r="HN9">
+        <v>1</v>
+      </c>
+      <c r="HO9">
+        <v>1</v>
+      </c>
+      <c r="HP9">
+        <v>0</v>
+      </c>
+      <c r="HQ9">
+        <v>0</v>
+      </c>
+      <c r="HR9">
+        <v>0</v>
+      </c>
+      <c r="HS9">
+        <v>0</v>
+      </c>
+      <c r="HT9">
+        <v>1</v>
+      </c>
+      <c r="HU9">
+        <v>0</v>
+      </c>
+      <c r="HV9">
+        <v>0</v>
+      </c>
+      <c r="HW9">
+        <v>0</v>
+      </c>
+      <c r="HX9">
+        <v>0</v>
+      </c>
+      <c r="HY9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:233">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>1</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>1</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>1</v>
-      </c>
-      <c r="BQ9">
-        <v>1</v>
-      </c>
-      <c r="BR9">
-        <v>1</v>
-      </c>
-      <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
-        <v>0</v>
-      </c>
-      <c r="BU9">
-        <v>1</v>
-      </c>
-      <c r="BV9">
-        <v>1</v>
-      </c>
-      <c r="BW9">
-        <v>1</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9">
-        <v>0</v>
-      </c>
-      <c r="BZ9">
-        <v>0</v>
-      </c>
-      <c r="CA9">
-        <v>0</v>
-      </c>
-      <c r="CB9">
-        <v>0</v>
-      </c>
-      <c r="CC9">
-        <v>0</v>
-      </c>
-      <c r="CD9">
-        <v>0</v>
-      </c>
-      <c r="CE9">
-        <v>0</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
-      </c>
-      <c r="CG9">
-        <v>0</v>
-      </c>
-      <c r="CH9">
-        <v>1</v>
-      </c>
-      <c r="CI9">
-        <v>0</v>
-      </c>
-      <c r="CJ9">
-        <v>0</v>
-      </c>
-      <c r="CK9">
-        <v>0</v>
-      </c>
-      <c r="CL9">
-        <v>0</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
-      </c>
-      <c r="CN9">
-        <v>0</v>
-      </c>
-      <c r="CO9">
-        <v>1</v>
-      </c>
-      <c r="CP9">
-        <v>1</v>
-      </c>
-      <c r="CQ9">
-        <v>0</v>
-      </c>
-      <c r="CR9">
-        <v>0</v>
-      </c>
-      <c r="CS9">
-        <v>0</v>
-      </c>
-      <c r="CT9">
-        <v>1</v>
-      </c>
-      <c r="CU9">
-        <v>0</v>
-      </c>
-      <c r="CV9">
-        <v>0</v>
-      </c>
-      <c r="CW9">
-        <v>0</v>
-      </c>
-      <c r="CX9">
-        <v>0</v>
-      </c>
-      <c r="CY9">
-        <v>0</v>
-      </c>
-      <c r="CZ9">
-        <v>0</v>
-      </c>
-      <c r="DA9">
-        <v>0</v>
-      </c>
-      <c r="DB9">
-        <v>0</v>
-      </c>
-      <c r="DC9">
-        <v>0</v>
-      </c>
-      <c r="DD9">
-        <v>0</v>
-      </c>
-      <c r="DE9">
-        <v>1</v>
-      </c>
-      <c r="DF9">
-        <v>0</v>
-      </c>
-      <c r="DG9">
-        <v>0</v>
-      </c>
-      <c r="DH9">
-        <v>9</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>1</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>1</v>
+      </c>
+      <c r="CC10">
+        <v>1</v>
+      </c>
+      <c r="CD10">
+        <v>1</v>
+      </c>
+      <c r="CE10">
+        <v>1</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>1</v>
+      </c>
+      <c r="CN10">
+        <v>1</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>1</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>1</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>1</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>1</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
+      </c>
+      <c r="DT10">
+        <v>0</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
+      </c>
+      <c r="DV10">
+        <v>0</v>
+      </c>
+      <c r="DW10">
+        <v>0</v>
+      </c>
+      <c r="DX10">
+        <v>0</v>
+      </c>
+      <c r="DY10">
+        <v>0</v>
+      </c>
+      <c r="DZ10">
+        <v>0</v>
+      </c>
+      <c r="EA10">
+        <v>0</v>
+      </c>
+      <c r="EB10">
+        <v>0</v>
+      </c>
+      <c r="EC10">
+        <v>0</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
+      </c>
+      <c r="EE10">
+        <v>0</v>
+      </c>
+      <c r="EF10">
+        <v>0</v>
+      </c>
+      <c r="EG10">
+        <v>0</v>
+      </c>
+      <c r="EH10">
+        <v>0</v>
+      </c>
+      <c r="EI10">
+        <v>0</v>
+      </c>
+      <c r="EJ10">
+        <v>0</v>
+      </c>
+      <c r="EK10">
+        <v>1</v>
+      </c>
+      <c r="EL10">
+        <v>1</v>
+      </c>
+      <c r="EM10">
+        <v>1</v>
+      </c>
+      <c r="EN10">
+        <v>0</v>
+      </c>
+      <c r="EO10">
+        <v>0</v>
+      </c>
+      <c r="EP10">
+        <v>1</v>
+      </c>
+      <c r="EQ10">
+        <v>1</v>
+      </c>
+      <c r="ER10">
+        <v>1</v>
+      </c>
+      <c r="ES10">
+        <v>0</v>
+      </c>
+      <c r="ET10">
+        <v>0</v>
+      </c>
+      <c r="EU10">
+        <v>0</v>
+      </c>
+      <c r="EV10">
+        <v>0</v>
+      </c>
+      <c r="EW10">
+        <v>0</v>
+      </c>
+      <c r="EX10">
+        <v>0</v>
+      </c>
+      <c r="EY10">
+        <v>0</v>
+      </c>
+      <c r="EZ10">
+        <v>0</v>
+      </c>
+      <c r="FA10">
+        <v>0</v>
+      </c>
+      <c r="FB10">
+        <v>0</v>
+      </c>
+      <c r="FC10">
+        <v>1</v>
+      </c>
+      <c r="FD10">
+        <v>1</v>
+      </c>
+      <c r="FE10">
+        <v>0</v>
+      </c>
+      <c r="FF10">
+        <v>0</v>
+      </c>
+      <c r="FG10">
+        <v>0</v>
+      </c>
+      <c r="FH10">
+        <v>0</v>
+      </c>
+      <c r="FI10">
+        <v>0</v>
+      </c>
+      <c r="FJ10">
+        <v>0</v>
+      </c>
+      <c r="FK10">
+        <v>1</v>
+      </c>
+      <c r="FL10">
+        <v>1</v>
+      </c>
+      <c r="FM10">
+        <v>0</v>
+      </c>
+      <c r="FN10">
+        <v>0</v>
+      </c>
+      <c r="FO10">
+        <v>0</v>
+      </c>
+      <c r="FP10">
+        <v>0</v>
+      </c>
+      <c r="FQ10">
+        <v>0</v>
+      </c>
+      <c r="FR10">
+        <v>0</v>
+      </c>
+      <c r="FS10">
+        <v>0</v>
+      </c>
+      <c r="FT10">
+        <v>0</v>
+      </c>
+      <c r="FU10">
+        <v>0</v>
+      </c>
+      <c r="FV10">
+        <v>0</v>
+      </c>
+      <c r="FW10">
+        <v>1</v>
+      </c>
+      <c r="FX10">
+        <v>0</v>
+      </c>
+      <c r="FY10">
+        <v>0</v>
+      </c>
+      <c r="FZ10">
+        <v>0</v>
+      </c>
+      <c r="GA10">
+        <v>0</v>
+      </c>
+      <c r="GB10">
+        <v>0</v>
+      </c>
+      <c r="GC10">
+        <v>0</v>
+      </c>
+      <c r="GD10">
+        <v>1</v>
+      </c>
+      <c r="GE10">
+        <v>1</v>
+      </c>
+      <c r="GF10">
+        <v>0</v>
+      </c>
+      <c r="GG10">
+        <v>0</v>
+      </c>
+      <c r="GH10">
+        <v>0</v>
+      </c>
+      <c r="GI10">
+        <v>0</v>
+      </c>
+      <c r="GJ10">
+        <v>0</v>
+      </c>
+      <c r="GK10">
+        <v>0</v>
+      </c>
+      <c r="GL10">
+        <v>0</v>
+      </c>
+      <c r="GM10">
+        <v>0</v>
+      </c>
+      <c r="GN10">
+        <v>1</v>
+      </c>
+      <c r="GO10">
+        <v>1</v>
+      </c>
+      <c r="GP10">
+        <v>0</v>
+      </c>
+      <c r="GQ10">
+        <v>0</v>
+      </c>
+      <c r="GR10">
+        <v>0</v>
+      </c>
+      <c r="GS10">
+        <v>0</v>
+      </c>
+      <c r="GT10">
+        <v>0</v>
+      </c>
+      <c r="GU10">
+        <v>0</v>
+      </c>
+      <c r="GV10">
+        <v>0</v>
+      </c>
+      <c r="GW10">
+        <v>0</v>
+      </c>
+      <c r="GX10">
+        <v>0</v>
+      </c>
+      <c r="GY10">
+        <v>1</v>
+      </c>
+      <c r="GZ10">
+        <v>0</v>
+      </c>
+      <c r="HA10">
+        <v>0</v>
+      </c>
+      <c r="HB10">
+        <v>0</v>
+      </c>
+      <c r="HC10">
+        <v>0</v>
+      </c>
+      <c r="HD10">
+        <v>0</v>
+      </c>
+      <c r="HE10">
+        <v>0</v>
+      </c>
+      <c r="HF10">
+        <v>0</v>
+      </c>
+      <c r="HG10">
+        <v>0</v>
+      </c>
+      <c r="HH10">
+        <v>0</v>
+      </c>
+      <c r="HI10">
+        <v>0</v>
+      </c>
+      <c r="HJ10">
+        <v>0</v>
+      </c>
+      <c r="HK10">
+        <v>0</v>
+      </c>
+      <c r="HL10">
+        <v>0</v>
+      </c>
+      <c r="HM10">
+        <v>0</v>
+      </c>
+      <c r="HN10">
+        <v>0</v>
+      </c>
+      <c r="HO10">
+        <v>0</v>
+      </c>
+      <c r="HP10">
+        <v>0</v>
+      </c>
+      <c r="HQ10">
+        <v>1</v>
+      </c>
+      <c r="HR10">
+        <v>0</v>
+      </c>
+      <c r="HS10">
+        <v>0</v>
+      </c>
+      <c r="HT10">
+        <v>1</v>
+      </c>
+      <c r="HU10">
+        <v>0</v>
+      </c>
+      <c r="HV10">
+        <v>8</v>
+      </c>
+      <c r="HW10">
+        <v>0</v>
+      </c>
+      <c r="HX10">
+        <v>0</v>
+      </c>
+      <c r="HY10">
+        <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
-        <v>1</v>
-      </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-      <c r="AK10">
-        <v>1</v>
-      </c>
-      <c r="AL10">
-        <v>1</v>
-      </c>
-      <c r="AM10">
-        <v>1</v>
-      </c>
-      <c r="AN10">
-        <v>1</v>
-      </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
-      <c r="AP10">
-        <v>1</v>
-      </c>
-      <c r="AQ10">
-        <v>1</v>
-      </c>
-      <c r="AR10">
-        <v>1</v>
-      </c>
-      <c r="AS10">
-        <v>1</v>
-      </c>
-      <c r="AT10">
-        <v>1</v>
-      </c>
-      <c r="AU10">
-        <v>1</v>
-      </c>
-      <c r="AV10">
-        <v>1</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>1</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
-      <c r="AZ10">
-        <v>1</v>
-      </c>
-      <c r="BA10">
-        <v>1</v>
-      </c>
-      <c r="BB10">
-        <v>1</v>
-      </c>
-      <c r="BC10">
-        <v>1</v>
-      </c>
-      <c r="BD10">
-        <v>1</v>
-      </c>
-      <c r="BE10">
-        <v>1</v>
-      </c>
-      <c r="BF10">
-        <v>1</v>
-      </c>
-      <c r="BG10">
-        <v>1</v>
-      </c>
-      <c r="BH10">
-        <v>1</v>
-      </c>
-      <c r="BI10">
-        <v>1</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>1</v>
-      </c>
-      <c r="BN10">
-        <v>1</v>
-      </c>
-      <c r="BO10">
-        <v>1</v>
-      </c>
-      <c r="BP10">
-        <v>1</v>
-      </c>
-      <c r="BQ10">
-        <v>1</v>
-      </c>
-      <c r="BR10">
-        <v>1</v>
-      </c>
-      <c r="BS10">
-        <v>1</v>
-      </c>
-      <c r="BT10">
-        <v>1</v>
-      </c>
-      <c r="BU10">
-        <v>1</v>
-      </c>
-      <c r="BV10">
-        <v>1</v>
-      </c>
-      <c r="BW10">
-        <v>1</v>
-      </c>
-      <c r="BX10">
-        <v>1</v>
-      </c>
-      <c r="BY10">
-        <v>1</v>
-      </c>
-      <c r="BZ10">
-        <v>1</v>
-      </c>
-      <c r="CA10">
-        <v>1</v>
-      </c>
-      <c r="CB10">
-        <v>1</v>
-      </c>
-      <c r="CC10">
-        <v>1</v>
-      </c>
-      <c r="CD10">
-        <v>1</v>
-      </c>
-      <c r="CE10">
-        <v>1</v>
-      </c>
-      <c r="CF10">
-        <v>1</v>
-      </c>
-      <c r="CG10">
-        <v>1</v>
-      </c>
-      <c r="CH10">
-        <v>1</v>
-      </c>
-      <c r="CI10">
-        <v>0</v>
-      </c>
-      <c r="CJ10">
-        <v>0</v>
-      </c>
-      <c r="CK10">
-        <v>0</v>
-      </c>
-      <c r="CL10">
-        <v>0</v>
-      </c>
-      <c r="CM10">
-        <v>0</v>
-      </c>
-      <c r="CN10">
-        <v>0</v>
-      </c>
-      <c r="CO10">
-        <v>1</v>
-      </c>
-      <c r="CP10">
-        <v>1</v>
-      </c>
-      <c r="CQ10">
-        <v>1</v>
-      </c>
-      <c r="CR10">
-        <v>1</v>
-      </c>
-      <c r="CS10">
-        <v>1</v>
-      </c>
-      <c r="CT10">
-        <v>1</v>
-      </c>
-      <c r="CU10">
-        <v>1</v>
-      </c>
-      <c r="CV10">
-        <v>1</v>
-      </c>
-      <c r="CW10">
-        <v>1</v>
-      </c>
-      <c r="CX10">
-        <v>1</v>
-      </c>
-      <c r="CY10">
-        <v>1</v>
-      </c>
-      <c r="CZ10">
-        <v>1</v>
-      </c>
-      <c r="DA10">
-        <v>1</v>
-      </c>
-      <c r="DB10">
-        <v>1</v>
-      </c>
-      <c r="DC10">
-        <v>1</v>
-      </c>
-      <c r="DD10">
-        <v>1</v>
-      </c>
-      <c r="DE10">
-        <v>1</v>
-      </c>
-      <c r="DF10">
-        <v>1</v>
-      </c>
-      <c r="DG10">
-        <v>1</v>
-      </c>
-      <c r="DH10">
-        <v>1</v>
+    <row r="11" spans="1:233">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BJ11">
+        <v>1</v>
+      </c>
+      <c r="BK11">
+        <v>1</v>
+      </c>
+      <c r="BL11">
+        <v>1</v>
+      </c>
+      <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11">
+        <v>1</v>
+      </c>
+      <c r="BO11">
+        <v>1</v>
+      </c>
+      <c r="BP11">
+        <v>1</v>
+      </c>
+      <c r="BQ11">
+        <v>1</v>
+      </c>
+      <c r="BR11">
+        <v>1</v>
+      </c>
+      <c r="BS11">
+        <v>1</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
+      </c>
+      <c r="BV11">
+        <v>1</v>
+      </c>
+      <c r="BW11">
+        <v>1</v>
+      </c>
+      <c r="BX11">
+        <v>1</v>
+      </c>
+      <c r="BY11">
+        <v>1</v>
+      </c>
+      <c r="BZ11">
+        <v>1</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>1</v>
+      </c>
+      <c r="CC11">
+        <v>1</v>
+      </c>
+      <c r="CD11">
+        <v>1</v>
+      </c>
+      <c r="CE11">
+        <v>1</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>1</v>
+      </c>
+      <c r="CI11">
+        <v>1</v>
+      </c>
+      <c r="CJ11">
+        <v>1</v>
+      </c>
+      <c r="CK11">
+        <v>1</v>
+      </c>
+      <c r="CL11">
+        <v>1</v>
+      </c>
+      <c r="CM11">
+        <v>1</v>
+      </c>
+      <c r="CN11">
+        <v>1</v>
+      </c>
+      <c r="CO11">
+        <v>1</v>
+      </c>
+      <c r="CP11">
+        <v>1</v>
+      </c>
+      <c r="CQ11">
+        <v>1</v>
+      </c>
+      <c r="CR11">
+        <v>1</v>
+      </c>
+      <c r="CS11">
+        <v>1</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>1</v>
+      </c>
+      <c r="DB11">
+        <v>1</v>
+      </c>
+      <c r="DC11">
+        <v>1</v>
+      </c>
+      <c r="DD11">
+        <v>1</v>
+      </c>
+      <c r="DE11">
+        <v>1</v>
+      </c>
+      <c r="DF11">
+        <v>1</v>
+      </c>
+      <c r="DG11">
+        <v>1</v>
+      </c>
+      <c r="DH11">
+        <v>1</v>
+      </c>
+      <c r="DI11">
+        <v>1</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>1</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>1</v>
+      </c>
+      <c r="DO11">
+        <v>1</v>
+      </c>
+      <c r="DP11">
+        <v>1</v>
+      </c>
+      <c r="DQ11">
+        <v>1</v>
+      </c>
+      <c r="DR11">
+        <v>1</v>
+      </c>
+      <c r="DS11">
+        <v>1</v>
+      </c>
+      <c r="DT11">
+        <v>1</v>
+      </c>
+      <c r="DU11">
+        <v>1</v>
+      </c>
+      <c r="DV11">
+        <v>1</v>
+      </c>
+      <c r="DW11">
+        <v>0</v>
+      </c>
+      <c r="DX11">
+        <v>0</v>
+      </c>
+      <c r="DY11">
+        <v>0</v>
+      </c>
+      <c r="DZ11">
+        <v>1</v>
+      </c>
+      <c r="EA11">
+        <v>1</v>
+      </c>
+      <c r="EB11">
+        <v>1</v>
+      </c>
+      <c r="EC11">
+        <v>1</v>
+      </c>
+      <c r="ED11">
+        <v>0</v>
+      </c>
+      <c r="EE11">
+        <v>0</v>
+      </c>
+      <c r="EF11">
+        <v>1</v>
+      </c>
+      <c r="EG11">
+        <v>1</v>
+      </c>
+      <c r="EH11">
+        <v>1</v>
+      </c>
+      <c r="EI11">
+        <v>1</v>
+      </c>
+      <c r="EJ11">
+        <v>1</v>
+      </c>
+      <c r="EK11">
+        <v>1</v>
+      </c>
+      <c r="EL11">
+        <v>1</v>
+      </c>
+      <c r="EM11">
+        <v>1</v>
+      </c>
+      <c r="EN11">
+        <v>0</v>
+      </c>
+      <c r="EO11">
+        <v>0</v>
+      </c>
+      <c r="EP11">
+        <v>1</v>
+      </c>
+      <c r="EQ11">
+        <v>1</v>
+      </c>
+      <c r="ER11">
+        <v>1</v>
+      </c>
+      <c r="ES11">
+        <v>1</v>
+      </c>
+      <c r="ET11">
+        <v>1</v>
+      </c>
+      <c r="EU11">
+        <v>1</v>
+      </c>
+      <c r="EV11">
+        <v>1</v>
+      </c>
+      <c r="EW11">
+        <v>1</v>
+      </c>
+      <c r="EX11">
+        <v>1</v>
+      </c>
+      <c r="EY11">
+        <v>0</v>
+      </c>
+      <c r="EZ11">
+        <v>1</v>
+      </c>
+      <c r="FA11">
+        <v>1</v>
+      </c>
+      <c r="FB11">
+        <v>0</v>
+      </c>
+      <c r="FC11">
+        <v>1</v>
+      </c>
+      <c r="FD11">
+        <v>1</v>
+      </c>
+      <c r="FE11">
+        <v>0</v>
+      </c>
+      <c r="FF11">
+        <v>1</v>
+      </c>
+      <c r="FG11">
+        <v>0</v>
+      </c>
+      <c r="FH11">
+        <v>0</v>
+      </c>
+      <c r="FI11">
+        <v>0</v>
+      </c>
+      <c r="FJ11">
+        <v>0</v>
+      </c>
+      <c r="FK11">
+        <v>1</v>
+      </c>
+      <c r="FL11">
+        <v>1</v>
+      </c>
+      <c r="FM11">
+        <v>1</v>
+      </c>
+      <c r="FN11">
+        <v>1</v>
+      </c>
+      <c r="FO11">
+        <v>0</v>
+      </c>
+      <c r="FP11">
+        <v>0</v>
+      </c>
+      <c r="FQ11">
+        <v>1</v>
+      </c>
+      <c r="FR11">
+        <v>1</v>
+      </c>
+      <c r="FS11">
+        <v>1</v>
+      </c>
+      <c r="FT11">
+        <v>1</v>
+      </c>
+      <c r="FU11">
+        <v>1</v>
+      </c>
+      <c r="FV11">
+        <v>1</v>
+      </c>
+      <c r="FW11">
+        <v>1</v>
+      </c>
+      <c r="FX11">
+        <v>0</v>
+      </c>
+      <c r="FY11">
+        <v>0</v>
+      </c>
+      <c r="FZ11">
+        <v>0</v>
+      </c>
+      <c r="GA11">
+        <v>0</v>
+      </c>
+      <c r="GB11">
+        <v>0</v>
+      </c>
+      <c r="GC11">
+        <v>0</v>
+      </c>
+      <c r="GD11">
+        <v>1</v>
+      </c>
+      <c r="GE11">
+        <v>1</v>
+      </c>
+      <c r="GF11">
+        <v>1</v>
+      </c>
+      <c r="GG11">
+        <v>1</v>
+      </c>
+      <c r="GH11">
+        <v>1</v>
+      </c>
+      <c r="GI11">
+        <v>1</v>
+      </c>
+      <c r="GJ11">
+        <v>1</v>
+      </c>
+      <c r="GK11">
+        <v>0</v>
+      </c>
+      <c r="GL11">
+        <v>1</v>
+      </c>
+      <c r="GM11">
+        <v>1</v>
+      </c>
+      <c r="GN11">
+        <v>1</v>
+      </c>
+      <c r="GO11">
+        <v>1</v>
+      </c>
+      <c r="GP11">
+        <v>1</v>
+      </c>
+      <c r="GQ11">
+        <v>1</v>
+      </c>
+      <c r="GR11">
+        <v>1</v>
+      </c>
+      <c r="GS11">
+        <v>1</v>
+      </c>
+      <c r="GT11">
+        <v>1</v>
+      </c>
+      <c r="GU11">
+        <v>1</v>
+      </c>
+      <c r="GV11">
+        <v>1</v>
+      </c>
+      <c r="GW11">
+        <v>0</v>
+      </c>
+      <c r="GX11">
+        <v>0</v>
+      </c>
+      <c r="GY11">
+        <v>1</v>
+      </c>
+      <c r="GZ11">
+        <v>1</v>
+      </c>
+      <c r="HA11">
+        <v>1</v>
+      </c>
+      <c r="HB11">
+        <v>1</v>
+      </c>
+      <c r="HC11">
+        <v>1</v>
+      </c>
+      <c r="HD11">
+        <v>1</v>
+      </c>
+      <c r="HE11">
+        <v>0</v>
+      </c>
+      <c r="HF11">
+        <v>0</v>
+      </c>
+      <c r="HG11">
+        <v>1</v>
+      </c>
+      <c r="HH11">
+        <v>1</v>
+      </c>
+      <c r="HI11">
+        <v>0</v>
+      </c>
+      <c r="HJ11">
+        <v>0</v>
+      </c>
+      <c r="HK11">
+        <v>0</v>
+      </c>
+      <c r="HL11">
+        <v>1</v>
+      </c>
+      <c r="HM11">
+        <v>0</v>
+      </c>
+      <c r="HN11">
+        <v>1</v>
+      </c>
+      <c r="HO11">
+        <v>0</v>
+      </c>
+      <c r="HP11">
+        <v>0</v>
+      </c>
+      <c r="HQ11">
+        <v>0</v>
+      </c>
+      <c r="HR11">
+        <v>1</v>
+      </c>
+      <c r="HS11">
+        <v>0</v>
+      </c>
+      <c r="HT11">
+        <v>1</v>
+      </c>
+      <c r="HU11">
+        <v>1</v>
+      </c>
+      <c r="HV11">
+        <v>1</v>
+      </c>
+      <c r="HW11">
+        <v>1</v>
+      </c>
+      <c r="HX11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:233" ht="15.75" customHeight="1">
+      <c r="AD12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
